--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_2.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_2.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-262234.7830886721</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14015837.94718544</v>
+        <v>11862025.98425196</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30521977.82306018</v>
+        <v>28368165.86012663</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.581544816875205e-11</v>
+        <v>1142762.247472144</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10284,13 +10284,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>214.587604768856</v>
@@ -22594,7 +22594,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R2" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -22646,13 +22646,13 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>135.0905202853774</v>
@@ -22667,13 +22667,13 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -22728,10 +22728,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>131.5125593742073</v>
@@ -22746,10 +22746,10 @@
         <v>134.9951249905467</v>
       </c>
       <c r="P4" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -22828,10 +22828,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -22889,7 +22889,7 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>135.0905202853774</v>
@@ -23044,7 +23044,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>214.587604768856</v>
@@ -23068,7 +23068,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -23120,13 +23120,13 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>135.0905202853774</v>
@@ -23141,13 +23141,13 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
@@ -23202,10 +23202,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>131.5125593742073</v>
@@ -23220,10 +23220,10 @@
         <v>134.9951249905467</v>
       </c>
       <c r="P10" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -23281,19 +23281,19 @@
         <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>214.587604768856</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>224.5875773965909</v>
       </c>
       <c r="N11" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>224.3457561361446</v>
@@ -23302,10 +23302,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
@@ -23357,13 +23357,13 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>135.0905202853774</v>
@@ -23384,7 +23384,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R12" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
         <v>168.9616139056444</v>
@@ -23439,10 +23439,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J13" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>131.5125593742073</v>
@@ -23457,10 +23457,10 @@
         <v>134.9951249905467</v>
       </c>
       <c r="P13" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
         <v>173.3911476697823</v>
@@ -23518,7 +23518,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>214.587604768856</v>
@@ -23539,10 +23539,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
         <v>205.8649517235392</v>
@@ -23594,7 +23594,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>123.666686</v>
@@ -23618,10 +23618,10 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
@@ -23676,10 +23676,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>131.5125593742073</v>
@@ -23691,13 +23691,13 @@
         <v>124.4934058536024</v>
       </c>
       <c r="O16" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
         <v>173.3911476697823</v>
@@ -23755,7 +23755,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
         <v>214.587604768856</v>
@@ -23831,7 +23831,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>123.666686</v>
@@ -23858,7 +23858,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
         <v>168.9616139056444</v>
@@ -23913,28 +23913,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J19" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K19" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L19" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
         <v>173.3911476697823</v>
@@ -24068,7 +24068,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J21" t="n">
         <v>123.666686</v>
@@ -24095,7 +24095,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R21" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
@@ -24150,10 +24150,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J22" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K22" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L22" t="n">
         <v>131.5125593742073</v>
@@ -24162,16 +24162,16 @@
         <v>135.4526393489149</v>
       </c>
       <c r="N22" t="n">
-        <v>124.4934058536024</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R22" t="n">
         <v>173.3911476697823</v>
@@ -24253,7 +24253,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R23" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S23" t="n">
         <v>205.8649517235392</v>
@@ -24305,13 +24305,13 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J24" t="n">
         <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>135.0905202853774</v>
@@ -24326,13 +24326,13 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
         <v>168.9616139056444</v>
@@ -24387,28 +24387,28 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J25" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K25" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L25" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>124.4934058536024</v>
       </c>
       <c r="O25" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
         <v>173.3911476697823</v>
@@ -24484,13 +24484,13 @@
         <v>224.3457561361446</v>
       </c>
       <c r="P26" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>216.7480476275882</v>
       </c>
       <c r="R26" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
@@ -24542,7 +24542,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J27" t="n">
         <v>123.666686</v>
@@ -24563,13 +24563,13 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
         <v>168.9616139056444</v>
@@ -24624,10 +24624,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J28" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K28" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L28" t="n">
         <v>131.5125593742073</v>
@@ -24645,7 +24645,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q28" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R28" t="n">
         <v>173.3911476697823</v>
@@ -24703,10 +24703,10 @@
         <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K29" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>229.8722545957376</v>
@@ -24727,7 +24727,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R29" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
@@ -24779,10 +24779,10 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>134.395403</v>
@@ -24797,16 +24797,16 @@
         <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
         <v>168.9616139056444</v>
@@ -24861,10 +24861,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J31" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K31" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L31" t="n">
         <v>131.5125593742073</v>
@@ -24876,13 +24876,13 @@
         <v>124.4934058536024</v>
       </c>
       <c r="O31" t="n">
-        <v>134.9951249905467</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>134.2848039479189</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
         <v>173.3911476697823</v>
@@ -24940,7 +24940,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>214.587604768856</v>
@@ -24964,7 +24964,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R32" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
@@ -25034,7 +25034,7 @@
         <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>130.625047228972</v>
@@ -25043,7 +25043,7 @@
         <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
         <v>168.9616139056444</v>
@@ -25098,10 +25098,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J34" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K34" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L34" t="n">
         <v>131.5125593742073</v>
@@ -25119,7 +25119,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q34" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R34" t="n">
         <v>173.3911476697823</v>
@@ -25177,7 +25177,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>214.587604768856</v>
@@ -25201,7 +25201,7 @@
         <v>216.7480476275882</v>
       </c>
       <c r="R35" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
@@ -25253,13 +25253,13 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>135.0905202853774</v>
@@ -25274,13 +25274,13 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
         <v>168.9616139056444</v>
@@ -25335,16 +25335,16 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J37" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K37" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L37" t="n">
         <v>131.5125593742073</v>
       </c>
       <c r="M37" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>124.4934058536024</v>
@@ -25356,7 +25356,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
         <v>173.3911476697823</v>
@@ -25414,13 +25414,13 @@
         <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>224.5875773965909</v>
@@ -25432,13 +25432,13 @@
         <v>224.3457561361446</v>
       </c>
       <c r="P38" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
         <v>205.8649517235392</v>
@@ -25490,16 +25490,16 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>134.395403</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>138.5806830739679</v>
@@ -25514,10 +25514,10 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
@@ -25572,10 +25572,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J40" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K40" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L40" t="n">
         <v>131.5125593742073</v>
@@ -25651,13 +25651,13 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>224.5875773965909</v>
@@ -25669,13 +25669,13 @@
         <v>224.3457561361446</v>
       </c>
       <c r="P41" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
@@ -25727,13 +25727,13 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>135.0905202853774</v>
@@ -25748,13 +25748,13 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
         <v>168.9616139056444</v>
@@ -25809,10 +25809,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J43" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K43" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L43" t="n">
         <v>131.5125593742073</v>
@@ -25830,7 +25830,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
         <v>173.3911476697823</v>
@@ -25888,7 +25888,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>176.5197569135191</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>214.587604768856</v>
@@ -25909,10 +25909,10 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>210.1958993687788</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
@@ -25964,13 +25964,13 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>97.03432049999999</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>135.0905202853774</v>
@@ -25985,13 +25985,13 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
       </c>
       <c r="R45" t="n">
-        <v>142.0375163648649</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
         <v>168.9616139056444</v>
@@ -26046,16 +26046,16 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J46" t="n">
-        <v>123.8205359034112</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K46" t="n">
-        <v>125.787926716272</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L46" t="n">
         <v>131.5125593742073</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>124.4934058536024</v>
@@ -26067,7 +26067,7 @@
         <v>134.2848039479189</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7173765887097</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R46" t="n">
         <v>173.3911476697823</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>93218.47807300344</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>50395.40556148977</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>93218.47807300344</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>167822.3943715868</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>100341.0081743102</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>66464.6845877978</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>30244.63993422402</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>76187.50588687694</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>64811.35002994764</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>129637.253568579</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>57644.65118580659</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>82996.57525131473</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>200100.6668692301</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>202502.4952149818</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-7.421476766467095e-12</v>
+        <v>113620.9069006166</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2625.872621774745</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1419.58888905605</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2625.872621774745</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4727.391390748927</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2826.507272515782</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1872.244636275995</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>851.9616882880007</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2146.1269263909</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1825.671831829512</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3651.753621650115</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1623.792991149482</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2337.931697220135</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5636.638503358596</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5704.295639858644</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3200.588926777936</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3938.808932662118</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2129.383333584075</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3938.808932662118</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7091.087086123389</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4239.760908773673</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2808.366954413992</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1277.942532432001</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3219.19038958635</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2738.507747744268</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5477.630432475173</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2435.689486724224</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3506.897545830202</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8454.957755037893</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8556.443459787964</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4800.883390166903</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-20347.98521537341</v>
       </c>
     </row>
   </sheetData>
